--- a/biology/Médecine/Faculté_de_pharmacie_de_Clermont-Ferrand/Faculté_de_pharmacie_de_Clermont-Ferrand.xlsx
+++ b/biology/Médecine/Faculté_de_pharmacie_de_Clermont-Ferrand/Faculté_de_pharmacie_de_Clermont-Ferrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_pharmacie_de_Clermont-Ferrand</t>
+          <t>Faculté_de_pharmacie_de_Clermont-Ferrand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Faculté de pharmacie de Clermont-Ferrand est une unité de formation et de recherche composante de l'Université Clermont Auvergne œuvrant pour la formation de futurs professionnels de santé et de chercheurs dans le domaine pharmaceutique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_pharmacie_de_Clermont-Ferrand</t>
+          <t>Faculté_de_pharmacie_de_Clermont-Ferrand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une « école préparatoire de médecine et de pharmacie » fut fondée à Clermont-Ferrand à la suite de l'ordonnance du 13 octobre 1840, transformée en 1928 en « école de médecine et de pharmacie de plein exercice ». Enfin en mars 1954 fut créée la « faculté mixte de médecine et de pharmacie » de Clermont-Ferrand[1],[2].
-Le 13 octobre 1967 sont inaugurés sur le plateau Saint-Jacques les nouveaux bâtiments de la faculté de Médecine et Pharmacie[3], à proximité immédiate du CHU Gabriel-Montpied (inauguré en 1970).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une « école préparatoire de médecine et de pharmacie » fut fondée à Clermont-Ferrand à la suite de l'ordonnance du 13 octobre 1840, transformée en 1928 en « école de médecine et de pharmacie de plein exercice ». Enfin en mars 1954 fut créée la « faculté mixte de médecine et de pharmacie » de Clermont-Ferrand,.
+Le 13 octobre 1967 sont inaugurés sur le plateau Saint-Jacques les nouveaux bâtiments de la faculté de Médecine et Pharmacie, à proximité immédiate du CHU Gabriel-Montpied (inauguré en 1970).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_pharmacie_de_Clermont-Ferrand</t>
+          <t>Faculté_de_pharmacie_de_Clermont-Ferrand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté propose un doctorat de pharmacie, deux mentions de master, le master «Sciences du Médicament et des produit de santé » (co-porté par l'UFR de Chimie) et le parcours « Qualité des produits de santé » du master « Qualité, Hygiène, Sécurité », les parcours « Pharmacologie » et «Nutrition» de la licence «Sciences de la Vie»  et la licence professionnelle «Industries Pharmaceutiques, Cosmétologiques, et de santé : gestion, production et valorisation».
-L'UFR propose également (en 2022) huit diplômes universitaires, un diplôme inter-universitaire et des formations continues non diplômantes[4].
-Depuis la rentrée 2023, la faculté propose un DEUST Préparateur/Technicien en pharmacie en partenariat avec 4 CFA d'Auvergne[5].
+L'UFR propose également (en 2022) huit diplômes universitaires, un diplôme inter-universitaire et des formations continues non diplômantes.
+Depuis la rentrée 2023, la faculté propose un DEUST Préparateur/Technicien en pharmacie en partenariat avec 4 CFA d'Auvergne.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_pharmacie_de_Clermont-Ferrand</t>
+          <t>Faculté_de_pharmacie_de_Clermont-Ferrand</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Anciens élèves</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Isabelle Adenot (1957-), pharmacienne française et présidente de l'Ordre des pharmaciens.
 Philippe Morvan (1962-), pharmacien et écrivain français.</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facult%C3%A9_de_pharmacie_de_Clermont-Ferrand</t>
+          <t>Faculté_de_pharmacie_de_Clermont-Ferrand</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
